--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_241.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_241.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,640 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1049019607843137</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G'], ['G', 'G', 'C']]</t>
-        </is>
+          <t>jaah_53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1929744525547445</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
+          <t>[['D:7', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(21.740249, 26.921541), (3.826054, 11.465419)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619), (153.617981, 161.988775)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+          <t>[('0:00:41.700000', '0:00:45.420000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:03:42.980000', '0:03:50.900000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2073732718894009</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1109022556390977</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'D']]</t>
+          <t>[['G', 'G:7', 'C'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(25.850181, 33.826235)]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(57.401473, 66.677845)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:51.641107', '0:00:57.139232'), ('0:00:00.421247', '0:00:03.083177')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:17.840000', '0:00:26.980000'), ('0:00:00.740000', '0:00:21.500000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1018099547511312</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1785714285714285</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(33.698526, 40.885102)]</t>
+          <t>[['A:7', 'D', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.389127, 22.035759)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:20.480000', '0:01:33.600000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:33.016000', '0:00:39.805000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>isophonics_170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08534946236559139</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E:7/5', 'E:7', 'A:7', 'A:7/5'], ['D', 'D/5', 'D', 'D:maj(*1)/#1']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[['D:7', 'D:7', 'G:7', 'G:7'], ['C', 'C', 'C', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:00:41.627674', '0:00:46.153479'), ('0:00:37.077029', '0:00:40.734172')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:06.610000', '0:00:09.700000'), ('0:00:23.670000', '0:00:26.740000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2435064935064935</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03263106320431161</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F:min7', 'Bb:7'], ['F:min7', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_28</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_297</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2748538011695906</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7'], ['A:min7/C', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['G', 'C/5', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.7, 14.24), (8.35, 10.7), (8.94, 11.88)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(72.24, 76.56), (73.3, 80.18), (9.14, 16.64)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:04.476575', '0:01:10.099405')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:01.302038', '0:00:04.917554')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(19.859433, 32.119569)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.965212, 35.623988)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2664473684210527</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(55.58, 62.32)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(6.357029, 23.632675)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A'], ['F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61), (33.48, 42.01)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.36, 19.54), (17.94, 20.12)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3538461538461539</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['B', 'B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['E', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46)]</t>
+          <t>[('0:00:09.107074', '0:00:26.162131')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:02.976598', '0:02:14.098957')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3319148936170213</v>
-      </c>
-      <c r="D12" t="inlineStr">
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3576923076923077</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[['A/3', 'D', 'A']]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[(138.02, 142.34)]</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(22.66, 29.32)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(11.4, 15.42)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.094553, 16.853782)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.5, 26.2)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_73</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06514120799835085</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'F:7', 'Bb']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(46.59, 53.06)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(25.11, 28.15)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09764309764309764</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'C', 'C'], ['C:7', 'C:7', 'F', 'F'], ['C', 'C', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Eb', 'Eb'], ['Eb:7', 'Eb:7', 'Ab', 'Ab'], ['Eb', 'Eb', 'Ab', 'Ab']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(37.28, 38.9), (39.86, 41.47), (36.0, 37.61)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(130.64, 134.26), (101.89, 105.49), (136.07, 139.7)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1756272401433692</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B', 'F#:min', 'B', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E', 'B:min', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(11.953548, 18.083616)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(21.670589, 29.925283)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
